--- a/mSigHdp-paper-tracking-CPU-time-only.xlsx
+++ b/mSigHdp-paper-tracking-CPU-time-only.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Rozen_Lab\practice\6_Mo_mSigHdp\mSigHdp_paper_sup_files_x1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176E1B41-9DEA-41FF-A174-6CE813DD56A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70D632A-0122-4F66-A39D-8A9BEE59B543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8685" yWindow="2190" windowWidth="17100" windowHeight="12855" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool_info" sheetId="7" r:id="rId1"/>
@@ -113,12 +113,6 @@
     <t>All 5 seeds</t>
   </si>
   <si>
-    <t>mSigHdp v0.0.0.9019
-(on branch for-NR-version-plus-fixes)
-hdpx v0.1.5.0099
-(on branch NR-version-plus-fixes)</t>
-  </si>
-  <si>
     <t>Data set name</t>
   </si>
   <si>
@@ -510,6 +504,12 @@
   </si>
   <si>
     <t>2) Texts highlighted in red stands for machine other than HPC.</t>
+  </si>
+  <si>
+    <t>mSigHdp v2.0.1.10
+(on branch for-NR-version-plus-fixes)
+hdpx v1.0.3.9
+(on branch NR-version-plus-fixes)</t>
   </si>
 </sst>
 </file>
@@ -1157,8 +1157,8 @@
   </sheetPr>
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1175,7 +1175,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>7</v>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="F1" s="17"/>
       <c r="G1" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
@@ -1208,20 +1208,20 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="2"/>
@@ -1229,16 +1229,16 @@
     <row r="4" spans="1:13" ht="45" customHeight="1">
       <c r="A4" s="25"/>
       <c r="B4" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="2"/>
       <c r="G4" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="2"/>
@@ -1246,16 +1246,16 @@
     <row r="5" spans="1:13" ht="45" customHeight="1">
       <c r="A5" s="25"/>
       <c r="B5" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="2"/>
       <c r="G5" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="2"/>
@@ -1263,16 +1263,16 @@
     <row r="6" spans="1:13" ht="45" customHeight="1">
       <c r="A6" s="25"/>
       <c r="B6" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="2"/>
       <c r="G6" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="2"/>
@@ -1290,23 +1290,23 @@
     </row>
     <row r="8" spans="1:13" ht="45" customHeight="1">
       <c r="A8" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="2"/>
@@ -1314,16 +1314,16 @@
     <row r="9" spans="1:13" ht="45" customHeight="1">
       <c r="A9" s="25"/>
       <c r="B9" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="2"/>
       <c r="G9" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="2"/>
@@ -1344,20 +1344,20 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="5"/>
@@ -1365,16 +1365,16 @@
     <row r="12" spans="1:13" ht="45" customHeight="1">
       <c r="A12" s="25"/>
       <c r="B12" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="2"/>
       <c r="G12" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="5"/>
@@ -1382,18 +1382,18 @@
     <row r="13" spans="1:13" ht="45" customHeight="1">
       <c r="A13" s="25"/>
       <c r="B13" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="2"/>
       <c r="G13" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="5"/>
@@ -1401,16 +1401,16 @@
     <row r="14" spans="1:13" ht="45" customHeight="1">
       <c r="A14" s="25"/>
       <c r="B14" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="2"/>
       <c r="G14" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="5"/>
@@ -1431,20 +1431,20 @@
         <v>16</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="5"/>
@@ -1453,16 +1453,16 @@
     <row r="17" spans="1:13" ht="45" customHeight="1">
       <c r="A17" s="25"/>
       <c r="B17" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="26"/>
       <c r="D17" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="2"/>
       <c r="G17" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="5"/>
@@ -1471,16 +1471,16 @@
     <row r="18" spans="1:13" ht="45" customHeight="1">
       <c r="A18" s="25"/>
       <c r="B18" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="25"/>
       <c r="F18" s="2"/>
       <c r="G18" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="5"/>
@@ -1489,16 +1489,16 @@
     <row r="19" spans="1:13" ht="45" customHeight="1">
       <c r="A19" s="25"/>
       <c r="B19" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="2"/>
       <c r="G19" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="5"/>
@@ -1521,68 +1521,68 @@
         <v>17</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M21" s="19"/>
     </row>
     <row r="22" spans="1:13" ht="45" customHeight="1">
       <c r="A22" s="25"/>
       <c r="B22" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" s="25"/>
       <c r="F22" s="5"/>
       <c r="G22" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M22" s="19"/>
     </row>
     <row r="23" spans="1:13" ht="45" customHeight="1">
       <c r="A23" s="25"/>
       <c r="B23" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="5"/>
       <c r="G23" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M23" s="19"/>
     </row>
     <row r="24" spans="1:13" ht="45" customHeight="1">
       <c r="A24" s="25"/>
       <c r="B24" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="26"/>
       <c r="D24" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" s="25"/>
       <c r="F24" s="5"/>
       <c r="G24" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M24" s="19"/>
     </row>
@@ -1602,20 +1602,20 @@
         <v>20</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -1623,16 +1623,16 @@
     <row r="27" spans="1:13" ht="45" customHeight="1">
       <c r="A27" s="25"/>
       <c r="B27" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E27" s="25"/>
       <c r="F27" s="5"/>
       <c r="G27" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -1640,16 +1640,16 @@
     <row r="28" spans="1:13" ht="45" customHeight="1">
       <c r="A28" s="25"/>
       <c r="B28" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E28" s="25"/>
       <c r="F28" s="5"/>
       <c r="G28" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -1657,16 +1657,16 @@
     <row r="29" spans="1:13" ht="45" customHeight="1">
       <c r="A29" s="25"/>
       <c r="B29" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" s="26"/>
       <c r="D29" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="5"/>
       <c r="G29" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -1686,20 +1686,20 @@
         <v>23</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E31" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -1707,16 +1707,16 @@
     <row r="32" spans="1:13" ht="45" customHeight="1">
       <c r="A32" s="25"/>
       <c r="B32" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" s="26"/>
       <c r="D32" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E32" s="25"/>
       <c r="F32" s="5"/>
       <c r="G32" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
@@ -1726,16 +1726,16 @@
         <v>21</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33" s="26"/>
       <c r="D33" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="5"/>
       <c r="G33" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -1743,16 +1743,16 @@
     <row r="34" spans="1:9" ht="45" customHeight="1">
       <c r="A34" s="25"/>
       <c r="B34" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C34" s="26"/>
       <c r="D34" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="5"/>
       <c r="G34" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="36" spans="1:9" ht="75" customHeight="1">
       <c r="A36" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36" s="24"/>
       <c r="C36" s="24"/>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" s="5"/>
     </row>
@@ -1794,6 +1794,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A21:A24"/>
@@ -1806,18 +1818,6 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
